--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_15-47.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_15-47.xlsx
@@ -143,6 +143,12 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
+    <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
     <t>RELAXON 30 CAP</t>
   </si>
   <si>
@@ -197,18 +203,12 @@
     <t>سرنجات 10 سم</t>
   </si>
   <si>
-    <t>-2:0</t>
+    <t>-1:0</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>-3:0</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
@@ -219,9 +219,6 @@
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>-1:0</t>
   </si>
   <si>
     <t>كريم ONE للبشره الحساسه</t>
@@ -1381,7 +1378,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>23</v>
+        <v>28.199999999999999</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1401,17 +1398,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1419,7 +1416,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1427,13 +1424,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1445,7 +1442,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1459,11 +1456,11 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1471,7 +1468,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1479,17 +1476,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1497,7 +1494,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1505,17 +1502,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1537,11 +1534,11 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1583,13 +1580,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1601,7 +1598,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1609,13 +1606,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1641,11 +1638,11 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>11.67</v>
+        <v>20</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1667,11 +1664,11 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>8</v>
+        <v>11.67</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1693,11 +1690,11 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1705,7 +1702,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1713,7 +1710,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -1723,7 +1720,7 @@
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1731,7 +1728,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1739,17 +1736,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>133.65000000000001</v>
+        <v>20</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1757,7 +1754,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1765,17 +1762,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>15</v>
+        <v>133.65000000000001</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1783,7 +1780,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1791,13 +1788,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1809,7 +1806,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1817,13 +1814,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1835,7 +1832,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1843,13 +1840,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -1861,7 +1858,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1869,51 +1866,77 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" ht="25.5" customHeight="1">
+      <c r="A45" s="6">
+        <v>42</v>
+      </c>
+      <c t="s" r="B45" s="7">
+        <v>74</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c t="s" r="H45" s="8">
+        <v>20</v>
+      </c>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="9">
+        <v>80</v>
+      </c>
+      <c r="M45" s="9"/>
+      <c t="s" r="N45" s="7">
         <v>34</v>
       </c>
     </row>
-    <row r="45" ht="26.25" customHeight="1">
-      <c r="K45" s="10">
-        <v>1420.3199999999999</v>
-      </c>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="11">
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="K46" s="10">
+        <v>1454.52</v>
+      </c>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="11">
+        <v>75</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c t="s" r="F47" s="12">
         <v>76</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c t="s" r="F46" s="12">
+      <c r="G47" s="12"/>
+      <c r="H47" s="13"/>
+      <c t="s" r="I47" s="14">
         <v>77</v>
       </c>
-      <c r="G46" s="12"/>
-      <c r="H46" s="13"/>
-      <c t="s" r="I46" s="14">
-        <v>78</v>
-      </c>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="134">
+  <mergeCells count="137">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2044,10 +2067,13 @@
     <mergeCell ref="B44:G44"/>
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="I46:N46"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="I47:N47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
